--- a/biology/Médecine/Classe_ATC_N06/Classe_ATC_N06.xlsx
+++ b/biology/Médecine/Classe_ATC_N06/Classe_ATC_N06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC N06, dénommée « Psychoanaleptiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN06[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC N06, dénommée « Psychoanaleptiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN06. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N06AA Inhibiteurs non sélectifs de la recapture des monoamines
-N06AA01 – Désipramine
+          <t>N06AA Inhibiteurs non sélectifs de la recapture des monoamines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N06AA01 – Désipramine
 N06AA02 – Imipramine
 N06AA03 – Imipramine oxyde
 N06AA04 – Clomipramine
@@ -534,9 +551,43 @@
 N06AA18 – Dimétacrine
 N06AA19 – Amineptine
 N06AA21 – Maprotiline
-N06AA23 – Quinupramine
-N06AB Inhibiteurs sélectifs de la recapture de la sérotonine (ISRS)
-N06AB02 – Zimélidine
+N06AA23 – Quinupramine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N06A Antidépresseurs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N06AB Inhibiteurs sélectifs de la recapture de la sérotonine (ISRS)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N06AB02 – Zimélidine
 N06AB03 – Fluoxétine
 N06AB04 – Citalopram
 N06AB05 – Paroxétine
@@ -544,19 +595,121 @@
 N06AB07 – Alaproclate
 N06AB08 – Fluvoxamine
 N06AB09 – Étopéridone
-N06AB10 – Escitalopram
-N06AF Inhibiteurs des monoamines oxydases, non sélectifs
-N06AF01 – Isocarboxazide
+N06AB10 – Escitalopram</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N06A Antidépresseurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N06AF Inhibiteurs des monoamines oxydases, non sélectifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N06AF01 – Isocarboxazide
 N06AF02 – Nialamide
 N06AF03 – Phénelzine
 N06AF04 – Tranylcypromine
 N06AF05 – Iproniazide
-N06AF06 – Iproclozide
-N06AG Inhibiteurs des monoamines oxydases A
-N06AG02 – Moclobémide
-N06AG03 – Toloxatone
-N06AX Autres antidépresseurs
-N06AX01 – Oxitriptan
+N06AF06 – Iproclozide</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N06A Antidépresseurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N06AG Inhibiteurs des monoamines oxydases A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N06AG02 – Moclobémide
+N06AG03 – Toloxatone</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N06A Antidépresseurs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N06AX Autres antidépresseurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N06AX01 – Oxitriptan
 N06AX02 – Tryptophane
 N06AX03 – Miansérine
 N06AX04 – Nomifensine
@@ -584,34 +737,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_N06</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>N06B Psychostimulants, agents utilisés en cas de trouble déficit de l'attention/hyperactivité (TDAH) et nootropiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N06BA Sympathicomimétiques centraux
-N06BA01 – Amphétamine
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N06BA Sympathicomimétiques centraux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N06BA01 – Amphétamine
 N06BA02 – Dexamphétamine
 N06BA03 – Méthamphétamine
 N06BA04 – Méthylphénidate
@@ -623,12 +781,80 @@
 N06BA10 – Fénétylline
 N06BA11 – Dexméthylphénidate
 N06BA12 – Lisdexamfétamine
-N06BA13 – Armodafinil
-N06BC Dérivés des xanthines
-N06BC01 – Caféine
-N06BC02 – Propentofylline
-N06BX Autres psychostimulants et nootropiques
-N06BX01 – Méclofénoxate
+N06BA13 – Armodafinil</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N06B Psychostimulants, agents utilisés en cas de trouble déficit de l'attention/hyperactivité (TDAH) et nootropiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N06BC Dérivés des xanthines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N06BC01 – Caféine
+N06BC02 – Propentofylline</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N06B Psychostimulants, agents utilisés en cas de trouble déficit de l'attention/hyperactivité (TDAH) et nootropiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N06BX Autres psychostimulants et nootropiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N06BX01 – Méclofénoxate
 N06BX02 – Pyritinol
 N06BX03 – Piracétam
 N06BX04 – Déanol
@@ -651,76 +877,119 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_N06</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>N06C Psycholeptiques et psychoanaleptiques en association</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N06CA Antidépresseurs associés à des psycholeptiques
-N06CA01 – Amitriptyline et psycholeptiques
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N06CA Antidépresseurs associés à des psycholeptiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N06CA01 – Amitriptyline et psycholeptiques
 N06CA02 – Mélitracène et psycholeptiques
-N06CA03 – Fluoxétine et psycholeptiques
-N06CB Psychostimulants associés à des psycholeptiques</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_N06</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+N06CA03 – Fluoxétine et psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>N06D Médicaments anti-démence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>N06DA Anticholinestérases
-N06DA01 – Tacrine
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N06DA Anticholinestérases</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N06DA01 – Tacrine
 N06DA02 – Donépézil
 N06DA03 – Rivastigmine
 N06DA04 – Galantamine
 N06DA05 – Ipidacrine
 N06DA52 – Donépézil et mémantine
-N06DA53 – Donépézil, mémantine et Ginkgo folium
-N06DX Autres médicaments anti-démence
-N06DX01 – Mémantine
+N06DA53 – Donépézil, mémantine et Ginkgo folium</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N06D Médicaments anti-démence</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N06DX Autres médicaments anti-démence</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N06DX01 – Mémantine
 N06DX02 – Ginkgo folium
 N06DX30 –  Associations</t>
         </is>
